--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H2">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I2">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J2">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N2">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O2">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P2">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q2">
-        <v>0.5931059016160001</v>
+        <v>4.356655655617223</v>
       </c>
       <c r="R2">
-        <v>5.337953114544</v>
+        <v>39.20990090055501</v>
       </c>
       <c r="S2">
-        <v>4.832706845973551E-06</v>
+        <v>3.497117780984015E-05</v>
       </c>
       <c r="T2">
-        <v>4.832706845973552E-06</v>
+        <v>3.497117780984014E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H3">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I3">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J3">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N3">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O3">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P3">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q3">
-        <v>202.457341231864</v>
+        <v>558.8356711176813</v>
       </c>
       <c r="R3">
-        <v>1822.116071086776</v>
+        <v>5029.521040059131</v>
       </c>
       <c r="S3">
-        <v>0.00164964971065538</v>
+        <v>0.004485812780714026</v>
       </c>
       <c r="T3">
-        <v>0.00164964971065538</v>
+        <v>0.004485812780714025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H4">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I4">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J4">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N4">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O4">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P4">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q4">
-        <v>3.100276861832</v>
+        <v>13.08049904086567</v>
       </c>
       <c r="R4">
-        <v>27.90249175648799</v>
+        <v>117.724491367791</v>
       </c>
       <c r="S4">
-        <v>2.526147383421132E-05</v>
+        <v>0.0001049980751197904</v>
       </c>
       <c r="T4">
-        <v>2.526147383421133E-05</v>
+        <v>0.0001049980751197904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H5">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I5">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J5">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N5">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O5">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P5">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q5">
-        <v>0.15713137492</v>
+        <v>0.7602597130846668</v>
       </c>
       <c r="R5">
-        <v>1.41418237428</v>
+        <v>6.842337417762001</v>
       </c>
       <c r="S5">
-        <v>1.280327626523545E-06</v>
+        <v>6.102657568004474E-06</v>
       </c>
       <c r="T5">
-        <v>1.280327626523546E-06</v>
+        <v>6.102657568004472E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J6">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N6">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O6">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P6">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q6">
-        <v>330.6104579634235</v>
+        <v>879.8061355347988</v>
       </c>
       <c r="R6">
-        <v>2975.494121670812</v>
+        <v>7918.25521981319</v>
       </c>
       <c r="S6">
-        <v>0.002693858582753961</v>
+        <v>0.00706226501153596</v>
       </c>
       <c r="T6">
-        <v>0.002693858582753961</v>
+        <v>0.007062265011535958</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J7">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N7">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O7">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P7">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q7">
         <v>112854.2375322033</v>
@@ -883,10 +883,10 @@
         <v>1015688.13778983</v>
       </c>
       <c r="S7">
-        <v>0.9195515418629437</v>
+        <v>0.9058888099737784</v>
       </c>
       <c r="T7">
-        <v>0.9195515418629439</v>
+        <v>0.9058888099737782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J8">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N8">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O8">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P8">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q8">
-        <v>1728.163470150897</v>
+        <v>2641.545309456008</v>
       </c>
       <c r="R8">
-        <v>15553.47123135807</v>
+        <v>23773.90778510408</v>
       </c>
       <c r="S8">
-        <v>0.01408130893724755</v>
+        <v>0.02120386783165395</v>
       </c>
       <c r="T8">
-        <v>0.01408130893724755</v>
+        <v>0.02120386783165395</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J9">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N9">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O9">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P9">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q9">
-        <v>87.58853297729888</v>
+        <v>153.5308762145107</v>
       </c>
       <c r="R9">
-        <v>788.2967967956899</v>
+        <v>1381.777885930596</v>
       </c>
       <c r="S9">
-        <v>0.0007136831749521637</v>
+        <v>0.001232403016399868</v>
       </c>
       <c r="T9">
-        <v>0.0007136831749521638</v>
+        <v>0.001232403016399868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H10">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I10">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J10">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N10">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O10">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P10">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q10">
-        <v>21.536006987242</v>
+        <v>55.83005409634722</v>
       </c>
       <c r="R10">
-        <v>193.8240628851781</v>
+        <v>502.470486867125</v>
       </c>
       <c r="S10">
-        <v>0.0001754782883100737</v>
+        <v>0.0004481517253765477</v>
       </c>
       <c r="T10">
-        <v>0.0001754782883100738</v>
+        <v>0.0004481517253765476</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H11">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I11">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J11">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N11">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O11">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P11">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q11">
-        <v>7351.339286134395</v>
+        <v>7161.416512053547</v>
       </c>
       <c r="R11">
-        <v>66162.05357520956</v>
+        <v>64452.74860848192</v>
       </c>
       <c r="S11">
-        <v>0.05989970357465351</v>
+        <v>0.05748518818338161</v>
       </c>
       <c r="T11">
-        <v>0.05989970357465352</v>
+        <v>0.05748518818338159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H12">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I12">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J12">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N12">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O12">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P12">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q12">
-        <v>112.572786709559</v>
+        <v>167.6251296374917</v>
       </c>
       <c r="R12">
-        <v>1013.155080386031</v>
+        <v>1508.626166737425</v>
       </c>
       <c r="S12">
-        <v>0.000917258242616229</v>
+        <v>0.001345538568418194</v>
       </c>
       <c r="T12">
-        <v>0.0009172582426162292</v>
+        <v>0.001345538568418194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H13">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I13">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J13">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N13">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O13">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P13">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q13">
-        <v>5.705528100415002</v>
+        <v>9.742643041816667</v>
       </c>
       <c r="R13">
-        <v>51.34975290373501</v>
+        <v>87.68378737635</v>
       </c>
       <c r="S13">
-        <v>4.648941215328183E-05</v>
+        <v>7.820487297725225E-05</v>
       </c>
       <c r="T13">
-        <v>4.648941215328184E-05</v>
+        <v>7.820487297725223E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H14">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09233266666666667</v>
+        <v>0.2457116666666667</v>
       </c>
       <c r="N14">
-        <v>0.276998</v>
+        <v>0.737135</v>
       </c>
       <c r="O14">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344261</v>
       </c>
       <c r="P14">
-        <v>0.002874858548413657</v>
+        <v>0.007550096805344259</v>
       </c>
       <c r="Q14">
-        <v>0.08455560926355556</v>
+        <v>0.5866263661805554</v>
       </c>
       <c r="R14">
-        <v>0.761000483372</v>
+        <v>5.279637295624999</v>
       </c>
       <c r="S14">
-        <v>6.889705036487973E-07</v>
+        <v>4.7088906219131E-06</v>
       </c>
       <c r="T14">
-        <v>6.889705036487975E-07</v>
+        <v>4.708890621913097E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H15">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>31.51785566666667</v>
       </c>
       <c r="N15">
-        <v>94.55356700000002</v>
+        <v>94.553567</v>
       </c>
       <c r="O15">
-        <v>0.9813360759751099</v>
+        <v>0.9684638283904637</v>
       </c>
       <c r="P15">
-        <v>0.98133607597511</v>
+        <v>0.9684638283904636</v>
       </c>
       <c r="Q15">
-        <v>28.86314870767089</v>
+        <v>75.24756716018054</v>
       </c>
       <c r="R15">
-        <v>259.768338369038</v>
+        <v>677.228104441625</v>
       </c>
       <c r="S15">
-        <v>0.0002351808268571625</v>
+        <v>0.0006040174525897316</v>
       </c>
       <c r="T15">
-        <v>0.0002351808268571626</v>
+        <v>0.0006040174525897315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H16">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4826403333333333</v>
+        <v>0.737729</v>
       </c>
       <c r="N16">
-        <v>1.447921</v>
+        <v>2.213187</v>
       </c>
       <c r="O16">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="P16">
-        <v>0.01502743003298814</v>
+        <v>0.02266854253064832</v>
       </c>
       <c r="Q16">
-        <v>0.4419881815771111</v>
+        <v>1.761297248791666</v>
       </c>
       <c r="R16">
-        <v>3.977893634193999</v>
+        <v>15.851675239125</v>
       </c>
       <c r="S16">
-        <v>3.601379290152528E-06</v>
+        <v>1.413805545638178E-05</v>
       </c>
       <c r="T16">
-        <v>3.601379290152529E-06</v>
+        <v>1.413805545638178E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H17">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02446166666666667</v>
+        <v>0.042878</v>
       </c>
       <c r="N17">
-        <v>0.07338500000000001</v>
+        <v>0.128634</v>
       </c>
       <c r="O17">
-        <v>0.0007616354434881704</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="P17">
-        <v>0.0007616354434881705</v>
+        <v>0.001317532273543725</v>
       </c>
       <c r="Q17">
-        <v>0.02240129309888889</v>
+        <v>0.1023694384166667</v>
       </c>
       <c r="R17">
-        <v>0.20161163789</v>
+        <v>0.9213249457499999</v>
       </c>
       <c r="S17">
-        <v>1.825287562013697E-07</v>
+        <v>8.217265986002152E-07</v>
       </c>
       <c r="T17">
-        <v>1.825287562013697E-07</v>
+        <v>8.217265986002149E-07</v>
       </c>
     </row>
   </sheetData>
